--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-22.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1970"/>
+  <dimension ref="A1:G1915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48853,10 +48853,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1864" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1864" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1865">
@@ -48890,10 +48888,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G1865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1866">
@@ -48927,10 +48923,8 @@
           <t>250.0K</t>
         </is>
       </c>
-      <c r="G1866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1867">
@@ -48964,10 +48958,8 @@
           <t>1908.0K</t>
         </is>
       </c>
-      <c r="G1867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1868">
@@ -49001,10 +48993,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="G1868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1869">
@@ -49034,10 +49024,8 @@
           <t>237.0K</t>
         </is>
       </c>
-      <c r="G1869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1870">
@@ -49067,10 +49055,8 @@
           <t>147.8</t>
         </is>
       </c>
-      <c r="G1870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1871">
@@ -49100,10 +49086,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1872">
@@ -49133,10 +49117,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="G1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1873">
@@ -49170,10 +49152,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="G1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1874">
@@ -49203,10 +49183,8 @@
         </is>
       </c>
       <c r="F1874" t="inlineStr"/>
-      <c r="G1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1875">
@@ -49232,10 +49210,8 @@
       </c>
       <c r="E1875" t="inlineStr"/>
       <c r="F1875" t="inlineStr"/>
-      <c r="G1875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1876">
@@ -49261,10 +49237,8 @@
       </c>
       <c r="E1876" t="inlineStr"/>
       <c r="F1876" t="inlineStr"/>
-      <c r="G1876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1877">
@@ -49290,10 +49264,8 @@
       </c>
       <c r="E1877" t="inlineStr"/>
       <c r="F1877" t="inlineStr"/>
-      <c r="G1877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1878">
@@ -49319,10 +49291,8 @@
       </c>
       <c r="E1878" t="inlineStr"/>
       <c r="F1878" t="inlineStr"/>
-      <c r="G1878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1879">
@@ -49340,10 +49310,8 @@
       <c r="D1879" t="inlineStr"/>
       <c r="E1879" t="inlineStr"/>
       <c r="F1879" t="inlineStr"/>
-      <c r="G1879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1880">
@@ -49369,10 +49337,8 @@
       </c>
       <c r="E1880" t="inlineStr"/>
       <c r="F1880" t="inlineStr"/>
-      <c r="G1880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1881">
@@ -49398,81 +49364,79 @@
       </c>
       <c r="E1881" t="inlineStr"/>
       <c r="F1881" t="inlineStr"/>
-      <c r="G1881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1882">
       <c r="A1882" t="inlineStr">
         <is>
-          <t>Friday June 13 2025</t>
-        </is>
-      </c>
-      <c r="B1882" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJUN/13</t>
+        </is>
+      </c>
       <c r="C1882" t="inlineStr"/>
-      <c r="D1882" t="inlineStr"/>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>0.487M</t>
+        </is>
+      </c>
       <c r="E1882" t="inlineStr"/>
       <c r="F1882" t="inlineStr"/>
-      <c r="G1882" t="inlineStr"/>
+      <c r="G1882" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1883">
       <c r="A1883" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1883" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJUN</t>
+          <t>EIA Refinery Crude Runs ChangeJUN/13</t>
         </is>
       </c>
       <c r="C1883" t="inlineStr"/>
       <c r="D1883" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E1883" t="inlineStr">
-        <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="F1883" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
+          <t>0.228M</t>
+        </is>
+      </c>
+      <c r="E1883" t="inlineStr"/>
+      <c r="F1883" t="inlineStr"/>
       <c r="G1883" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1884">
       <c r="A1884" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1884" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1884" t="inlineStr"/>
       <c r="D1884" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1884" t="inlineStr"/>
-      <c r="F1884" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="F1884" t="inlineStr"/>
       <c r="G1884" t="inlineStr">
         <is>
           <t>3</t>
@@ -49482,30 +49446,22 @@
     <row r="1885">
       <c r="A1885" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1885" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1885" t="inlineStr"/>
       <c r="D1885" t="inlineStr">
         <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="E1885" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F1885" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
+          <t>4.080%</t>
+        </is>
+      </c>
+      <c r="E1885" t="inlineStr"/>
+      <c r="F1885" t="inlineStr"/>
       <c r="G1885" t="inlineStr">
         <is>
           <t>3</t>
@@ -49515,30 +49471,22 @@
     <row r="1886">
       <c r="A1886" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1886" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJUN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1886" t="inlineStr"/>
       <c r="D1886" t="inlineStr">
         <is>
-          <t>58.9</t>
-        </is>
-      </c>
-      <c r="E1886" t="inlineStr">
-        <is>
-          <t>59.4</t>
-        </is>
-      </c>
-      <c r="F1886" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
+          <t>4.380%</t>
+        </is>
+      </c>
+      <c r="E1886" t="inlineStr"/>
+      <c r="F1886" t="inlineStr"/>
       <c r="G1886" t="inlineStr">
         <is>
           <t>3</t>
@@ -49548,26 +49496,22 @@
     <row r="1887">
       <c r="A1887" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1887" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJUN</t>
+          <t>15-Year Mortgage RateJUN/19</t>
         </is>
       </c>
       <c r="C1887" t="inlineStr"/>
       <c r="D1887" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>5.97%</t>
         </is>
       </c>
       <c r="E1887" t="inlineStr"/>
-      <c r="F1887" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
+      <c r="F1887" t="inlineStr"/>
       <c r="G1887" t="inlineStr">
         <is>
           <t>3</t>
@@ -49577,18 +49521,18 @@
     <row r="1888">
       <c r="A1888" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1888" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUN/13</t>
+          <t>30-Year Mortgage RateJUN/19</t>
         </is>
       </c>
       <c r="C1888" t="inlineStr"/>
       <c r="D1888" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>6.84%</t>
         </is>
       </c>
       <c r="E1888" t="inlineStr"/>
@@ -49602,18 +49546,18 @@
     <row r="1889">
       <c r="A1889" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1889" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUN/13</t>
+          <t>EIA Natural Gas Stocks ChangeJUN/13</t>
         </is>
       </c>
       <c r="C1889" t="inlineStr"/>
       <c r="D1889" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>109Bcf</t>
         </is>
       </c>
       <c r="E1889" t="inlineStr"/>
@@ -49627,90 +49571,122 @@
     <row r="1890">
       <c r="A1890" t="inlineStr">
         <is>
-          <t>Saturday June 14 2025</t>
-        </is>
-      </c>
-      <c r="B1890" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>Fed Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="C1890" t="inlineStr"/>
-      <c r="D1890" t="inlineStr"/>
-      <c r="E1890" t="inlineStr"/>
-      <c r="F1890" t="inlineStr"/>
-      <c r="G1890" t="inlineStr"/>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="E1890" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="F1890" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="G1890" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1891">
       <c r="A1891" t="inlineStr">
         <is>
-          <t>Sunday June 15 2025</t>
-        </is>
-      </c>
-      <c r="B1891" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>FOMC Economic Projections</t>
+        </is>
+      </c>
       <c r="C1891" t="inlineStr"/>
       <c r="D1891" t="inlineStr"/>
       <c r="E1891" t="inlineStr"/>
       <c r="F1891" t="inlineStr"/>
-      <c r="G1891" t="inlineStr"/>
+      <c r="G1891" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1892">
       <c r="A1892" t="inlineStr">
         <is>
-          <t>Monday June 16 2025</t>
-        </is>
-      </c>
-      <c r="B1892" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>Interest Rate Projection - 1st Yr</t>
+        </is>
+      </c>
       <c r="C1892" t="inlineStr"/>
-      <c r="D1892" t="inlineStr"/>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1892" t="inlineStr"/>
       <c r="F1892" t="inlineStr"/>
-      <c r="G1892" t="inlineStr"/>
+      <c r="G1892" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1893">
       <c r="A1893" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1893" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUN</t>
+          <t>Interest Rate Projection - 2nd Yr</t>
         </is>
       </c>
       <c r="C1893" t="inlineStr"/>
       <c r="D1893" t="inlineStr">
         <is>
-          <t>-9.2</t>
-        </is>
-      </c>
-      <c r="E1893" t="inlineStr">
-        <is>
-          <t>-8.1</t>
-        </is>
-      </c>
-      <c r="F1893" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="E1893" t="inlineStr"/>
+      <c r="F1893" t="inlineStr"/>
       <c r="G1893" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1894">
       <c r="A1894" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1894" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Interest Rate Projection - Current</t>
         </is>
       </c>
       <c r="C1894" t="inlineStr"/>
       <c r="D1894" t="inlineStr">
         <is>
-          <t>4.250%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E1894" t="inlineStr"/>
@@ -49724,18 +49700,18 @@
     <row r="1895">
       <c r="A1895" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1895" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Interest Rate Projection - Longer</t>
         </is>
       </c>
       <c r="C1895" t="inlineStr"/>
       <c r="D1895" t="inlineStr">
         <is>
-          <t>4.150%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E1895" t="inlineStr"/>
@@ -49749,12 +49725,12 @@
     <row r="1896">
       <c r="A1896" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1896" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C1896" t="inlineStr"/>
@@ -49763,109 +49739,97 @@
       <c r="F1896" t="inlineStr"/>
       <c r="G1896" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1897">
       <c r="A1897" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1897" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>Net Long-term TIC FlowsAPR</t>
         </is>
       </c>
       <c r="C1897" t="inlineStr"/>
       <c r="D1897" t="inlineStr">
         <is>
-          <t>5.047%</t>
+          <t>$161.8B</t>
         </is>
       </c>
       <c r="E1897" t="inlineStr"/>
       <c r="F1897" t="inlineStr"/>
       <c r="G1897" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1898">
       <c r="A1898" t="inlineStr">
         <is>
-          <t>Tuesday June 17 2025</t>
-        </is>
-      </c>
-      <c r="B1898" t="inlineStr"/>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentAPR</t>
+        </is>
+      </c>
       <c r="C1898" t="inlineStr"/>
-      <c r="D1898" t="inlineStr"/>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>$123.3B</t>
+        </is>
+      </c>
       <c r="E1898" t="inlineStr"/>
       <c r="F1898" t="inlineStr"/>
-      <c r="G1898" t="inlineStr"/>
+      <c r="G1898" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1899">
       <c r="A1899" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1899" t="inlineStr">
         <is>
-          <t>Retail Sales MoMMAY</t>
+          <t>Overall Net Capital FlowsAPR</t>
         </is>
       </c>
       <c r="C1899" t="inlineStr"/>
       <c r="D1899" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1899" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1899" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>$254.3B</t>
+        </is>
+      </c>
+      <c r="E1899" t="inlineStr"/>
+      <c r="F1899" t="inlineStr"/>
       <c r="G1899" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1900">
       <c r="A1900" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1900" t="inlineStr">
-        <is>
-          <t>Export Prices MoMMAY</t>
-        </is>
-      </c>
+          <t>Thursday June 19 2025</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr"/>
       <c r="C1900" t="inlineStr"/>
-      <c r="D1900" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D1900" t="inlineStr"/>
       <c r="E1900" t="inlineStr"/>
-      <c r="F1900" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F1900" t="inlineStr"/>
+      <c r="G1900" t="inlineStr"/>
     </row>
     <row r="1901">
       <c r="A1901" t="inlineStr">
@@ -49875,19 +49839,19 @@
       </c>
       <c r="B1901" t="inlineStr">
         <is>
-          <t>Import Prices MoMMAY</t>
+          <t>Initial Jobless ClaimsJUN/14</t>
         </is>
       </c>
       <c r="C1901" t="inlineStr"/>
       <c r="D1901" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>248K</t>
         </is>
       </c>
       <c r="E1901" t="inlineStr"/>
       <c r="F1901" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>255.0K</t>
         </is>
       </c>
       <c r="G1901" t="inlineStr">
@@ -49904,24 +49868,24 @@
       </c>
       <c r="B1902" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMMAY</t>
+          <t>Continuing Jobless ClaimsJUN/07</t>
         </is>
       </c>
       <c r="C1902" t="inlineStr"/>
       <c r="D1902" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1956K</t>
         </is>
       </c>
       <c r="E1902" t="inlineStr"/>
       <c r="F1902" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1965.0K</t>
         </is>
       </c>
       <c r="G1902" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -49933,59 +49897,39 @@
       </c>
       <c r="B1903" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMMAY</t>
+          <t>Jobless Claims 4-week AverageJUN/14</t>
         </is>
       </c>
       <c r="C1903" t="inlineStr"/>
       <c r="D1903" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1903" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>240.25K</t>
+        </is>
+      </c>
+      <c r="E1903" t="inlineStr"/>
       <c r="F1903" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>247.5K</t>
         </is>
       </c>
       <c r="G1903" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1904">
       <c r="A1904" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1904" t="inlineStr">
-        <is>
-          <t>Export Prices YoYMAY</t>
-        </is>
-      </c>
+          <t>Friday June 20 2025</t>
+        </is>
+      </c>
+      <c r="B1904" t="inlineStr"/>
       <c r="C1904" t="inlineStr"/>
-      <c r="D1904" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="D1904" t="inlineStr"/>
       <c r="E1904" t="inlineStr"/>
-      <c r="F1904" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="G1904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1904" t="inlineStr"/>
+      <c r="G1904" t="inlineStr"/>
     </row>
     <row r="1905">
       <c r="A1905" t="inlineStr">
@@ -49995,24 +49939,24 @@
       </c>
       <c r="B1905" t="inlineStr">
         <is>
-          <t>Import Prices YoYMAY</t>
+          <t>Philadelphia Fed Manufacturing IndexJUN</t>
         </is>
       </c>
       <c r="C1905" t="inlineStr"/>
       <c r="D1905" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="E1905" t="inlineStr"/>
       <c r="F1905" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G1905" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50024,21 +49968,17 @@
       </c>
       <c r="B1906" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMMAY</t>
+          <t>Philly Fed Business ConditionsJUN</t>
         </is>
       </c>
       <c r="C1906" t="inlineStr"/>
       <c r="D1906" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E1906" t="inlineStr"/>
-      <c r="F1906" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1906" t="inlineStr"/>
       <c r="G1906" t="inlineStr">
         <is>
           <t>3</t>
@@ -50053,21 +49993,17 @@
       </c>
       <c r="B1907" t="inlineStr">
         <is>
-          <t>Retail Sales YoYMAY</t>
+          <t>Philly Fed CAPEX IndexJUN</t>
         </is>
       </c>
       <c r="C1907" t="inlineStr"/>
       <c r="D1907" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="E1907" t="inlineStr"/>
-      <c r="F1907" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="F1907" t="inlineStr"/>
       <c r="G1907" t="inlineStr">
         <is>
           <t>3</t>
@@ -50077,18 +50013,18 @@
     <row r="1908">
       <c r="A1908" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1908" t="inlineStr">
         <is>
-          <t>Redbook YoYJUN/14</t>
+          <t>Philly Fed EmploymentJUN</t>
         </is>
       </c>
       <c r="C1908" t="inlineStr"/>
       <c r="D1908" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>16.5</t>
         </is>
       </c>
       <c r="E1908" t="inlineStr"/>
@@ -50102,63 +50038,47 @@
     <row r="1909">
       <c r="A1909" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1909" t="inlineStr">
         <is>
-          <t>Industrial Production MoMMAY</t>
+          <t>Philly Fed New OrdersJUN</t>
         </is>
       </c>
       <c r="C1909" t="inlineStr"/>
       <c r="D1909" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1909" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1909" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E1909" t="inlineStr"/>
+      <c r="F1909" t="inlineStr"/>
       <c r="G1909" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1910">
       <c r="A1910" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1910" t="inlineStr">
         <is>
-          <t>Capacity UtilizationMAY</t>
+          <t>Philly Fed Prices PaidJUN</t>
         </is>
       </c>
       <c r="C1910" t="inlineStr"/>
       <c r="D1910" t="inlineStr">
         <is>
-          <t>77.7%</t>
-        </is>
-      </c>
-      <c r="E1910" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
-      <c r="F1910" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+          <t>59.80</t>
+        </is>
+      </c>
+      <c r="E1910" t="inlineStr"/>
+      <c r="F1910" t="inlineStr"/>
       <c r="G1910" t="inlineStr">
         <is>
           <t>3</t>
@@ -50168,24 +50088,28 @@
     <row r="1911">
       <c r="A1911" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1911" t="inlineStr">
         <is>
-          <t>Industrial Production YoYMAY</t>
+          <t>CB Leading Index MoMMAY</t>
         </is>
       </c>
       <c r="C1911" t="inlineStr"/>
       <c r="D1911" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E1911" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="E1911" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="F1911" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="G1911" t="inlineStr">
@@ -50197,26 +50121,18 @@
     <row r="1912">
       <c r="A1912" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1912" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMMAY</t>
+          <t>Baker Hughes Oil Rig CountJUN/20</t>
         </is>
       </c>
       <c r="C1912" t="inlineStr"/>
-      <c r="D1912" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="D1912" t="inlineStr"/>
       <c r="E1912" t="inlineStr"/>
-      <c r="F1912" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F1912" t="inlineStr"/>
       <c r="G1912" t="inlineStr">
         <is>
           <t>3</t>
@@ -50226,26 +50142,18 @@
     <row r="1913">
       <c r="A1913" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1913" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYMAY</t>
+          <t>Baker Hughes Total Rigs CountJUN/20</t>
         </is>
       </c>
       <c r="C1913" t="inlineStr"/>
-      <c r="D1913" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="D1913" t="inlineStr"/>
       <c r="E1913" t="inlineStr"/>
-      <c r="F1913" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="F1913" t="inlineStr"/>
       <c r="G1913" t="inlineStr">
         <is>
           <t>3</t>
@@ -50255,1423 +50163,40 @@
     <row r="1914">
       <c r="A1914" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1914" t="inlineStr">
         <is>
-          <t>Business Inventories MoMAPR</t>
+          <t>Fed Balance SheetJUN/18</t>
         </is>
       </c>
       <c r="C1914" t="inlineStr"/>
       <c r="D1914" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$6.68T</t>
         </is>
       </c>
       <c r="E1914" t="inlineStr"/>
-      <c r="F1914" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1914" t="inlineStr"/>
       <c r="G1914" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1915">
       <c r="A1915" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1915" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUN</t>
-        </is>
-      </c>
+          <t>Sunday June 22 2025</t>
+        </is>
+      </c>
+      <c r="B1915" t="inlineStr"/>
       <c r="C1915" t="inlineStr"/>
-      <c r="D1915" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
+      <c r="D1915" t="inlineStr"/>
       <c r="E1915" t="inlineStr"/>
-      <c r="F1915" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1916">
-      <c r="A1916" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1916" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1916" t="inlineStr"/>
-      <c r="D1916" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1916" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1916" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1917">
-      <c r="A1917" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1917" t="inlineStr">
-        <is>
-          <t>5-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1917" t="inlineStr"/>
-      <c r="D1917" t="inlineStr">
-        <is>
-          <t>1.702%</t>
-        </is>
-      </c>
-      <c r="E1917" t="inlineStr"/>
-      <c r="F1917" t="inlineStr"/>
-      <c r="G1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1918">
-      <c r="A1918" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1918" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C1918" t="inlineStr"/>
-      <c r="D1918" t="inlineStr">
-        <is>
-          <t>-0.370M</t>
-        </is>
-      </c>
-      <c r="E1918" t="inlineStr"/>
-      <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1919">
-      <c r="A1919" t="inlineStr"/>
-      <c r="B1919" t="inlineStr">
-        <is>
-          <t>International Monetary Market (IMM) Date</t>
-        </is>
-      </c>
-      <c r="C1919" t="inlineStr"/>
-      <c r="D1919" t="inlineStr"/>
-      <c r="E1919" t="inlineStr"/>
-      <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1920">
-      <c r="A1920" t="inlineStr">
-        <is>
-          <t>Wednesday June 18 2025</t>
-        </is>
-      </c>
-      <c r="B1920" t="inlineStr"/>
-      <c r="C1920" t="inlineStr"/>
-      <c r="D1920" t="inlineStr"/>
-      <c r="E1920" t="inlineStr"/>
-      <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr"/>
-    </row>
-    <row r="1921">
-      <c r="A1921" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1921" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJUN/13</t>
-        </is>
-      </c>
-      <c r="C1921" t="inlineStr"/>
-      <c r="D1921" t="inlineStr">
-        <is>
-          <t>6.93%</t>
-        </is>
-      </c>
-      <c r="E1921" t="inlineStr"/>
-      <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1922">
-      <c r="A1922" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1922" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUN/13</t>
-        </is>
-      </c>
-      <c r="C1922" t="inlineStr"/>
-      <c r="D1922" t="inlineStr">
-        <is>
-          <t>12.5%</t>
-        </is>
-      </c>
-      <c r="E1922" t="inlineStr"/>
-      <c r="F1922" t="inlineStr"/>
-      <c r="G1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1923">
-      <c r="A1923" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1923" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUN/13</t>
-        </is>
-      </c>
-      <c r="C1923" t="inlineStr"/>
-      <c r="D1923" t="inlineStr">
-        <is>
-          <t>254.6</t>
-        </is>
-      </c>
-      <c r="E1923" t="inlineStr"/>
-      <c r="F1923" t="inlineStr"/>
-      <c r="G1923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1924">
-      <c r="A1924" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1924" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUN/13</t>
-        </is>
-      </c>
-      <c r="C1924" t="inlineStr"/>
-      <c r="D1924" t="inlineStr">
-        <is>
-          <t>707.4</t>
-        </is>
-      </c>
-      <c r="E1924" t="inlineStr"/>
-      <c r="F1924" t="inlineStr"/>
-      <c r="G1924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1925">
-      <c r="A1925" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1925" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUN/13</t>
-        </is>
-      </c>
-      <c r="C1925" t="inlineStr"/>
-      <c r="D1925" t="inlineStr">
-        <is>
-          <t>170.9</t>
-        </is>
-      </c>
-      <c r="E1925" t="inlineStr"/>
-      <c r="F1925" t="inlineStr"/>
-      <c r="G1925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1926">
-      <c r="A1926" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1926" t="inlineStr">
-        <is>
-          <t>Building Permits PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1926" t="inlineStr"/>
-      <c r="D1926" t="inlineStr">
-        <is>
-          <t>1.422M</t>
-        </is>
-      </c>
-      <c r="E1926" t="inlineStr"/>
-      <c r="F1926" t="inlineStr">
-        <is>
-          <t>1.4M</t>
-        </is>
-      </c>
-      <c r="G1926" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1927">
-      <c r="A1927" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1927" t="inlineStr">
-        <is>
-          <t>Housing StartsMAY</t>
-        </is>
-      </c>
-      <c r="C1927" t="inlineStr"/>
-      <c r="D1927" t="inlineStr">
-        <is>
-          <t>1.361M</t>
-        </is>
-      </c>
-      <c r="E1927" t="inlineStr">
-        <is>
-          <t>1.36M</t>
-        </is>
-      </c>
-      <c r="F1927" t="inlineStr">
-        <is>
-          <t>1.35M</t>
-        </is>
-      </c>
-      <c r="G1927" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1928">
-      <c r="A1928" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1928" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1928" t="inlineStr"/>
-      <c r="D1928" t="inlineStr">
-        <is>
-          <t>-4%</t>
-        </is>
-      </c>
-      <c r="E1928" t="inlineStr"/>
-      <c r="F1928" t="inlineStr">
-        <is>
-          <t>-1.5%</t>
-        </is>
-      </c>
-      <c r="G1928" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1929">
-      <c r="A1929" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1929" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1929" t="inlineStr"/>
-      <c r="D1929" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="E1929" t="inlineStr"/>
-      <c r="F1929" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G1929" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1930">
-      <c r="A1930" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1930" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C1930" t="inlineStr"/>
-      <c r="D1930" t="inlineStr">
-        <is>
-          <t>-3.644M</t>
-        </is>
-      </c>
-      <c r="E1930" t="inlineStr"/>
-      <c r="F1930" t="inlineStr"/>
-      <c r="G1930" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1931">
-      <c r="A1931" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1931" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C1931" t="inlineStr"/>
-      <c r="D1931" t="inlineStr">
-        <is>
-          <t>1.504M</t>
-        </is>
-      </c>
-      <c r="E1931" t="inlineStr"/>
-      <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1932">
-      <c r="A1932" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1932" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C1932" t="inlineStr"/>
-      <c r="D1932" t="inlineStr">
-        <is>
-          <t>0.451M</t>
-        </is>
-      </c>
-      <c r="E1932" t="inlineStr"/>
-      <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1933">
-      <c r="A1933" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1933" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C1933" t="inlineStr"/>
-      <c r="D1933" t="inlineStr">
-        <is>
-          <t>-0.403M</t>
-        </is>
-      </c>
-      <c r="E1933" t="inlineStr"/>
-      <c r="F1933" t="inlineStr"/>
-      <c r="G1933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1934">
-      <c r="A1934" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1934" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C1934" t="inlineStr"/>
-      <c r="D1934" t="inlineStr">
-        <is>
-          <t>-0.097M</t>
-        </is>
-      </c>
-      <c r="E1934" t="inlineStr"/>
-      <c r="F1934" t="inlineStr"/>
-      <c r="G1934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1935">
-      <c r="A1935" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1935" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C1935" t="inlineStr"/>
-      <c r="D1935" t="inlineStr">
-        <is>
-          <t>1.246M</t>
-        </is>
-      </c>
-      <c r="E1935" t="inlineStr"/>
-      <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1936">
-      <c r="A1936" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1936" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C1936" t="inlineStr"/>
-      <c r="D1936" t="inlineStr">
-        <is>
-          <t>0.681M</t>
-        </is>
-      </c>
-      <c r="E1936" t="inlineStr"/>
-      <c r="F1936" t="inlineStr"/>
-      <c r="G1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1937">
-      <c r="A1937" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1937" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C1937" t="inlineStr"/>
-      <c r="D1937" t="inlineStr">
-        <is>
-          <t>0.487M</t>
-        </is>
-      </c>
-      <c r="E1937" t="inlineStr"/>
-      <c r="F1937" t="inlineStr"/>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1938">
-      <c r="A1938" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1938" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C1938" t="inlineStr"/>
-      <c r="D1938" t="inlineStr">
-        <is>
-          <t>0.228M</t>
-        </is>
-      </c>
-      <c r="E1938" t="inlineStr"/>
-      <c r="F1938" t="inlineStr"/>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1939">
-      <c r="A1939" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1939" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1939" t="inlineStr"/>
-      <c r="D1939" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1939" t="inlineStr"/>
-      <c r="F1939" t="inlineStr"/>
-      <c r="G1939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1940">
-      <c r="A1940" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1940" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1940" t="inlineStr"/>
-      <c r="D1940" t="inlineStr">
-        <is>
-          <t>4.080%</t>
-        </is>
-      </c>
-      <c r="E1940" t="inlineStr"/>
-      <c r="F1940" t="inlineStr"/>
-      <c r="G1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1941">
-      <c r="A1941" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1941" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1941" t="inlineStr"/>
-      <c r="D1941" t="inlineStr">
-        <is>
-          <t>4.380%</t>
-        </is>
-      </c>
-      <c r="E1941" t="inlineStr"/>
-      <c r="F1941" t="inlineStr"/>
-      <c r="G1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1942">
-      <c r="A1942" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1942" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/19</t>
-        </is>
-      </c>
-      <c r="C1942" t="inlineStr"/>
-      <c r="D1942" t="inlineStr">
-        <is>
-          <t>5.97%</t>
-        </is>
-      </c>
-      <c r="E1942" t="inlineStr"/>
-      <c r="F1942" t="inlineStr"/>
-      <c r="G1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1943">
-      <c r="A1943" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1943" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/19</t>
-        </is>
-      </c>
-      <c r="C1943" t="inlineStr"/>
-      <c r="D1943" t="inlineStr">
-        <is>
-          <t>6.84%</t>
-        </is>
-      </c>
-      <c r="E1943" t="inlineStr"/>
-      <c r="F1943" t="inlineStr"/>
-      <c r="G1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1944">
-      <c r="A1944" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1944" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C1944" t="inlineStr"/>
-      <c r="D1944" t="inlineStr">
-        <is>
-          <t>109Bcf</t>
-        </is>
-      </c>
-      <c r="E1944" t="inlineStr"/>
-      <c r="F1944" t="inlineStr"/>
-      <c r="G1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1945">
-      <c r="A1945" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1945" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1945" t="inlineStr"/>
-      <c r="D1945" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1945" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1945" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1945" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1946">
-      <c r="A1946" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1946" t="inlineStr">
-        <is>
-          <t>FOMC Economic Projections</t>
-        </is>
-      </c>
-      <c r="C1946" t="inlineStr"/>
-      <c r="D1946" t="inlineStr"/>
-      <c r="E1946" t="inlineStr"/>
-      <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1947">
-      <c r="A1947" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1947" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 1st Yr</t>
-        </is>
-      </c>
-      <c r="C1947" t="inlineStr"/>
-      <c r="D1947" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1947" t="inlineStr"/>
-      <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1948">
-      <c r="A1948" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1948" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 2nd Yr</t>
-        </is>
-      </c>
-      <c r="C1948" t="inlineStr"/>
-      <c r="D1948" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1948" t="inlineStr"/>
-      <c r="F1948" t="inlineStr"/>
-      <c r="G1948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1949">
-      <c r="A1949" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1949" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Current</t>
-        </is>
-      </c>
-      <c r="C1949" t="inlineStr"/>
-      <c r="D1949" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E1949" t="inlineStr"/>
-      <c r="F1949" t="inlineStr"/>
-      <c r="G1949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1950">
-      <c r="A1950" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1950" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Longer</t>
-        </is>
-      </c>
-      <c r="C1950" t="inlineStr"/>
-      <c r="D1950" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1950" t="inlineStr"/>
-      <c r="F1950" t="inlineStr"/>
-      <c r="G1950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1951">
-      <c r="A1951" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1951" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1951" t="inlineStr"/>
-      <c r="D1951" t="inlineStr"/>
-      <c r="E1951" t="inlineStr"/>
-      <c r="F1951" t="inlineStr"/>
-      <c r="G1951" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1952">
-      <c r="A1952" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1952" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsAPR</t>
-        </is>
-      </c>
-      <c r="C1952" t="inlineStr"/>
-      <c r="D1952" t="inlineStr">
-        <is>
-          <t>$161.8B</t>
-        </is>
-      </c>
-      <c r="E1952" t="inlineStr"/>
-      <c r="F1952" t="inlineStr"/>
-      <c r="G1952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1953">
-      <c r="A1953" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1953" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentAPR</t>
-        </is>
-      </c>
-      <c r="C1953" t="inlineStr"/>
-      <c r="D1953" t="inlineStr">
-        <is>
-          <t>$123.3B</t>
-        </is>
-      </c>
-      <c r="E1953" t="inlineStr"/>
-      <c r="F1953" t="inlineStr"/>
-      <c r="G1953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1954">
-      <c r="A1954" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1954" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsAPR</t>
-        </is>
-      </c>
-      <c r="C1954" t="inlineStr"/>
-      <c r="D1954" t="inlineStr">
-        <is>
-          <t>$254.3B</t>
-        </is>
-      </c>
-      <c r="E1954" t="inlineStr"/>
-      <c r="F1954" t="inlineStr"/>
-      <c r="G1954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1955">
-      <c r="A1955" t="inlineStr">
-        <is>
-          <t>Thursday June 19 2025</t>
-        </is>
-      </c>
-      <c r="B1955" t="inlineStr"/>
-      <c r="C1955" t="inlineStr"/>
-      <c r="D1955" t="inlineStr"/>
-      <c r="E1955" t="inlineStr"/>
-      <c r="F1955" t="inlineStr"/>
-      <c r="G1955" t="inlineStr"/>
-    </row>
-    <row r="1956">
-      <c r="A1956" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1956" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/14</t>
-        </is>
-      </c>
-      <c r="C1956" t="inlineStr"/>
-      <c r="D1956" t="inlineStr">
-        <is>
-          <t>248K</t>
-        </is>
-      </c>
-      <c r="E1956" t="inlineStr"/>
-      <c r="F1956" t="inlineStr">
-        <is>
-          <t>255.0K</t>
-        </is>
-      </c>
-      <c r="G1956" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1957">
-      <c r="A1957" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1957" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUN/07</t>
-        </is>
-      </c>
-      <c r="C1957" t="inlineStr"/>
-      <c r="D1957" t="inlineStr">
-        <is>
-          <t>1956K</t>
-        </is>
-      </c>
-      <c r="E1957" t="inlineStr"/>
-      <c r="F1957" t="inlineStr">
-        <is>
-          <t>1965.0K</t>
-        </is>
-      </c>
-      <c r="G1957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1958">
-      <c r="A1958" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1958" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/14</t>
-        </is>
-      </c>
-      <c r="C1958" t="inlineStr"/>
-      <c r="D1958" t="inlineStr">
-        <is>
-          <t>240.25K</t>
-        </is>
-      </c>
-      <c r="E1958" t="inlineStr"/>
-      <c r="F1958" t="inlineStr">
-        <is>
-          <t>247.5K</t>
-        </is>
-      </c>
-      <c r="G1958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1959">
-      <c r="A1959" t="inlineStr">
-        <is>
-          <t>Friday June 20 2025</t>
-        </is>
-      </c>
-      <c r="B1959" t="inlineStr"/>
-      <c r="C1959" t="inlineStr"/>
-      <c r="D1959" t="inlineStr"/>
-      <c r="E1959" t="inlineStr"/>
-      <c r="F1959" t="inlineStr"/>
-      <c r="G1959" t="inlineStr"/>
-    </row>
-    <row r="1960">
-      <c r="A1960" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1960" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJUN</t>
-        </is>
-      </c>
-      <c r="C1960" t="inlineStr"/>
-      <c r="D1960" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="E1960" t="inlineStr"/>
-      <c r="F1960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G1960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1961">
-      <c r="A1961" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1961" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUN</t>
-        </is>
-      </c>
-      <c r="C1961" t="inlineStr"/>
-      <c r="D1961" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="E1961" t="inlineStr"/>
-      <c r="F1961" t="inlineStr"/>
-      <c r="G1961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1962">
-      <c r="A1962" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1962" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUN</t>
-        </is>
-      </c>
-      <c r="C1962" t="inlineStr"/>
-      <c r="D1962" t="inlineStr">
-        <is>
-          <t>27.00</t>
-        </is>
-      </c>
-      <c r="E1962" t="inlineStr"/>
-      <c r="F1962" t="inlineStr"/>
-      <c r="G1962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1963">
-      <c r="A1963" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1963" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUN</t>
-        </is>
-      </c>
-      <c r="C1963" t="inlineStr"/>
-      <c r="D1963" t="inlineStr">
-        <is>
-          <t>16.5</t>
-        </is>
-      </c>
-      <c r="E1963" t="inlineStr"/>
-      <c r="F1963" t="inlineStr"/>
-      <c r="G1963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1964">
-      <c r="A1964" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1964" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUN</t>
-        </is>
-      </c>
-      <c r="C1964" t="inlineStr"/>
-      <c r="D1964" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="E1964" t="inlineStr"/>
-      <c r="F1964" t="inlineStr"/>
-      <c r="G1964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1965">
-      <c r="A1965" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1965" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUN</t>
-        </is>
-      </c>
-      <c r="C1965" t="inlineStr"/>
-      <c r="D1965" t="inlineStr">
-        <is>
-          <t>59.80</t>
-        </is>
-      </c>
-      <c r="E1965" t="inlineStr"/>
-      <c r="F1965" t="inlineStr"/>
-      <c r="G1965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1966">
-      <c r="A1966" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1966" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1966" t="inlineStr"/>
-      <c r="D1966" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1966" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1966" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="G1966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1967">
-      <c r="A1967" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1967" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/20</t>
-        </is>
-      </c>
-      <c r="C1967" t="inlineStr"/>
-      <c r="D1967" t="inlineStr"/>
-      <c r="E1967" t="inlineStr"/>
-      <c r="F1967" t="inlineStr"/>
-      <c r="G1967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1968">
-      <c r="A1968" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1968" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/20</t>
-        </is>
-      </c>
-      <c r="C1968" t="inlineStr"/>
-      <c r="D1968" t="inlineStr"/>
-      <c r="E1968" t="inlineStr"/>
-      <c r="F1968" t="inlineStr"/>
-      <c r="G1968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1969">
-      <c r="A1969" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1969" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/18</t>
-        </is>
-      </c>
-      <c r="C1969" t="inlineStr"/>
-      <c r="D1969" t="inlineStr">
-        <is>
-          <t>$6.68T</t>
-        </is>
-      </c>
-      <c r="E1969" t="inlineStr"/>
-      <c r="F1969" t="inlineStr"/>
-      <c r="G1969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1970">
-      <c r="A1970" t="inlineStr">
-        <is>
-          <t>Sunday June 22 2025</t>
-        </is>
-      </c>
-      <c r="B1970" t="inlineStr"/>
-      <c r="C1970" t="inlineStr"/>
-      <c r="D1970" t="inlineStr"/>
-      <c r="E1970" t="inlineStr"/>
-      <c r="F1970" t="inlineStr"/>
-      <c r="G1970" t="inlineStr"/>
+      <c r="F1915" t="inlineStr"/>
+      <c r="G1915" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
